--- a/public/assets/files/format_import.xlsx
+++ b/public/assets/files/format_import.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Files\KULIAH\TA\SISTEM\Tugas Akhir\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Files\KULIAH\TA\SISTEM\Tugas Akhir\SI-PEMBUATAN-KTM\public\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3368D0DC-EAC0-4742-A48F-EBBE8505B285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D0D90A-8B8E-4928-B8F0-188D611B0A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{D381CD91-0EED-4E64-B7E7-31D5CC578443}"/>
   </bookViews>
@@ -27,19 +27,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>nim</t>
-  </si>
-  <si>
     <t>role_id</t>
-  </si>
-  <si>
-    <t>username</t>
   </si>
   <si>
     <t>password</t>
   </si>
   <si>
     <t>abcd1234</t>
+  </si>
+  <si>
+    <t>no_identitas</t>
+  </si>
+  <si>
+    <t>nama_lengkap</t>
   </si>
 </sst>
 </file>
@@ -403,12 +403,12 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -417,16 +417,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -434,7 +434,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
